--- a/A02RNLQ_PON TEST SHEET.xlsx
+++ b/A02RNLQ_PON TEST SHEET.xlsx
@@ -1167,7 +1167,7 @@
       <c s="15" t="str" r="H26"/>
       <c s="17" t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">F 409-1 VENUS DR FST</t>
+          <t xml:space="preserve">F 409-2 VENUS DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J26"/>
@@ -1276,7 +1276,7 @@
       <c s="15" t="str" r="H29"/>
       <c s="17" t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">F 417-1 VENUS DR FST</t>
+          <t xml:space="preserve">F 417-2 VENUS DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J29"/>
@@ -2693,7 +2693,7 @@
       <c s="15" t="str" r="H68"/>
       <c s="17" t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">F 375-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 375-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J68"/>
@@ -3238,7 +3238,7 @@
       <c s="15" t="str" r="H83"/>
       <c s="17" t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">OPP 315-1 HYACINTH LN FST</t>
+          <t xml:space="preserve">OPP 315-2 HYACINTH LN FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J83"/>
@@ -3565,7 +3565,7 @@
       <c s="15" t="str" r="H92"/>
       <c s="17" t="inlineStr" r="I92">
         <is>
-          <t xml:space="preserve">F 315-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 315-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J92"/>
@@ -4328,7 +4328,7 @@
       <c s="15" t="str" r="H113"/>
       <c s="17" t="inlineStr" r="I113">
         <is>
-          <t xml:space="preserve">F 450-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 450-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J113"/>
@@ -4873,7 +4873,7 @@
       <c s="15" t="str" r="H128"/>
       <c s="17" t="inlineStr" r="I128">
         <is>
-          <t xml:space="preserve">F 345-1 JASMINE DR FST</t>
+          <t xml:space="preserve">F 345-2 JASMINE DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J128"/>
@@ -4982,7 +4982,7 @@
       <c s="15" t="str" r="H131"/>
       <c s="17" t="inlineStr" r="I131">
         <is>
-          <t xml:space="preserve">F 365-1 JASMINE DR FST</t>
+          <t xml:space="preserve">F 365-2 JASMINE DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J131"/>
@@ -5091,7 +5091,7 @@
       <c s="15" t="str" r="H134"/>
       <c s="17" t="inlineStr" r="I134">
         <is>
-          <t xml:space="preserve">F 385-1 JASMINE DR FST</t>
+          <t xml:space="preserve">F 385-2 JASMINE DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J134"/>
@@ -5418,7 +5418,7 @@
       <c s="15" t="str" r="H143"/>
       <c s="17" t="inlineStr" r="I143">
         <is>
-          <t xml:space="preserve">F 550-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 550-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J143"/>
@@ -5963,7 +5963,7 @@
       <c s="15" t="str" r="H158"/>
       <c s="17" t="inlineStr" r="I158">
         <is>
-          <t xml:space="preserve">F 295-1 MOSS LN FST</t>
+          <t xml:space="preserve">F 295-2 MOSS LN FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J158"/>
@@ -6072,7 +6072,7 @@
       <c s="15" t="str" r="H161"/>
       <c s="17" t="inlineStr" r="I161">
         <is>
-          <t xml:space="preserve">F 275-1 MOSS LN FST</t>
+          <t xml:space="preserve">F 275-2 MOSS LN FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J161"/>
@@ -6290,7 +6290,7 @@
       <c s="15" t="str" r="H167"/>
       <c s="17" t="inlineStr" r="I167">
         <is>
-          <t xml:space="preserve">F 390-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 390-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J167"/>
@@ -6399,7 +6399,7 @@
       <c s="15" t="str" r="H170"/>
       <c s="17" t="inlineStr" r="I170">
         <is>
-          <t xml:space="preserve">F 380-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 380-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J170"/>
@@ -7053,7 +7053,7 @@
       <c s="15" t="str" r="H188"/>
       <c s="17" t="inlineStr" r="I188">
         <is>
-          <t xml:space="preserve">F 260-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 260-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J188"/>
@@ -7407,14 +7407,14 @@
       <c s="15" t="str" r="Y197"/>
       <c s="18" t="inlineStr" r="Z197">
         <is>
-          <t xml:space="preserve">710-716</t>
+          <t xml:space="preserve">710-712</t>
         </is>
       </c>
       <c s="15" t="str" r="AA197"/>
       <c s="15" t="str" r="AB197"/>
       <c s="15" t="str" r="AC197"/>
       <c s="16" r="AD197">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c s="15" t="str" r="AE197"/>
       <c s="15" t="str" r="AF197"/>
@@ -7505,7 +7505,7 @@
       <c s="15" t="str" r="P200"/>
       <c s="15" t="str" r="Q200"/>
       <c s="16" r="R200">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c s="15" t="str" r="S200"/>
       <c s="15" t="str" r="T200"/>
@@ -7516,7 +7516,7 @@
       <c s="15" t="str" r="Y200"/>
       <c s="18" t="inlineStr" r="Z200">
         <is>
-          <t xml:space="preserve">718-720</t>
+          <t xml:space="preserve">714-716</t>
         </is>
       </c>
       <c s="15" t="str" r="AA200"/>
@@ -7614,7 +7614,7 @@
       <c s="15" t="str" r="P203"/>
       <c s="15" t="str" r="Q203"/>
       <c s="16" r="R203">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c s="15" t="str" r="S203"/>
       <c s="15" t="str" r="T203"/>
@@ -7625,7 +7625,7 @@
       <c s="15" t="str" r="Y203"/>
       <c s="18" t="inlineStr" r="Z203">
         <is>
-          <t xml:space="preserve">722-724</t>
+          <t xml:space="preserve">718-720</t>
         </is>
       </c>
       <c s="15" t="str" r="AA203"/>
@@ -7723,7 +7723,7 @@
       <c s="15" t="str" r="P206"/>
       <c s="15" t="str" r="Q206"/>
       <c s="16" r="R206">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c s="15" t="str" r="S206"/>
       <c s="15" t="str" r="T206"/>
@@ -7734,7 +7734,7 @@
       <c s="15" t="str" r="Y206"/>
       <c s="18" t="inlineStr" r="Z206">
         <is>
-          <t xml:space="preserve">726-728</t>
+          <t xml:space="preserve">722-724</t>
         </is>
       </c>
       <c s="15" t="str" r="AA206"/>
@@ -7832,7 +7832,7 @@
       <c s="15" t="str" r="P209"/>
       <c s="15" t="str" r="Q209"/>
       <c s="16" r="R209">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c s="15" t="str" r="S209"/>
       <c s="15" t="str" r="T209"/>
@@ -7843,7 +7843,7 @@
       <c s="15" t="str" r="Y209"/>
       <c s="18" t="inlineStr" r="Z209">
         <is>
-          <t xml:space="preserve">730-732</t>
+          <t xml:space="preserve">726-728</t>
         </is>
       </c>
       <c s="15" t="str" r="AA209"/>
@@ -7925,7 +7925,7 @@
       <c s="15" t="str" r="H212"/>
       <c s="17" t="inlineStr" r="I212">
         <is>
-          <t xml:space="preserve">F 375-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 375-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J212"/>
@@ -7941,7 +7941,7 @@
       <c s="15" t="str" r="P212"/>
       <c s="15" t="str" r="Q212"/>
       <c s="16" r="R212">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c s="15" t="str" r="S212"/>
       <c s="15" t="str" r="T212"/>
@@ -7952,14 +7952,14 @@
       <c s="15" t="str" r="Y212"/>
       <c s="18" t="inlineStr" r="Z212">
         <is>
-          <t xml:space="preserve">734</t>
+          <t xml:space="preserve">730-732</t>
         </is>
       </c>
       <c s="15" t="str" r="AA212"/>
       <c s="15" t="str" r="AB212"/>
       <c s="15" t="str" r="AC212"/>
       <c s="16" r="AD212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="15" t="str" r="AE212"/>
       <c s="15" t="str" r="AF212"/>
@@ -8034,7 +8034,7 @@
       <c s="15" t="str" r="H215"/>
       <c s="17" t="inlineStr" r="I215">
         <is>
-          <t xml:space="preserve">F 400-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 400-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J215"/>
@@ -8050,7 +8050,7 @@
       <c s="15" t="str" r="P215"/>
       <c s="15" t="str" r="Q215"/>
       <c s="16" r="R215">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c s="15" t="str" r="S215"/>
       <c s="15" t="str" r="T215"/>
@@ -8061,7 +8061,7 @@
       <c s="15" t="str" r="Y215"/>
       <c s="18" t="inlineStr" r="Z215">
         <is>
-          <t xml:space="preserve">736-738</t>
+          <t xml:space="preserve">734-736</t>
         </is>
       </c>
       <c s="15" t="str" r="AA215"/>
@@ -8143,7 +8143,7 @@
       <c s="15" t="str" r="H218"/>
       <c s="17" t="inlineStr" r="I218">
         <is>
-          <t xml:space="preserve">F 380-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 380-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J218"/>
@@ -8159,7 +8159,7 @@
       <c s="15" t="str" r="P218"/>
       <c s="15" t="str" r="Q218"/>
       <c s="16" r="R218">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c s="15" t="str" r="S218"/>
       <c s="15" t="str" r="T218"/>
@@ -8170,14 +8170,14 @@
       <c s="15" t="str" r="Y218"/>
       <c s="18" t="inlineStr" r="Z218">
         <is>
-          <t xml:space="preserve">740</t>
+          <t xml:space="preserve">738-740</t>
         </is>
       </c>
       <c s="15" t="str" r="AA218"/>
       <c s="15" t="str" r="AB218"/>
       <c s="15" t="str" r="AC218"/>
       <c s="16" r="AD218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="15" t="str" r="AE218"/>
       <c s="15" t="str" r="AF218"/>
@@ -8252,7 +8252,7 @@
       <c s="15" t="str" r="H221"/>
       <c s="17" t="inlineStr" r="I221">
         <is>
-          <t xml:space="preserve">F 360-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 370-1 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J221"/>
@@ -8797,7 +8797,7 @@
       <c s="15" t="str" r="H236"/>
       <c s="17" t="inlineStr" r="I236">
         <is>
-          <t xml:space="preserve">F 30-1 BERG CT FST</t>
+          <t xml:space="preserve">F 30-2 BERG CT FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J236"/>
@@ -9887,7 +9887,7 @@
       <c s="15" t="str" r="H266"/>
       <c s="17" t="inlineStr" r="I266">
         <is>
-          <t xml:space="preserve">F 250-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 250-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J266"/>
@@ -10214,7 +10214,7 @@
       <c s="15" t="str" r="H275"/>
       <c s="17" t="inlineStr" r="I275">
         <is>
-          <t xml:space="preserve">F 14-1 RED CYPRESS CT FST</t>
+          <t xml:space="preserve">F 14-2 RED CYPRESS CT FST</t>
         </is>
       </c>
       <c s="15" t="str" r="J275"/>
@@ -12232,7 +12232,7 @@
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;"Segoe UI,Regular"&amp;10Page &amp;P of &amp;N 
-&amp;"-,Regular"6/18/2024 7:34:05 AM CT </oddFooter>
+&amp;"-,Regular"7/3/2024 12:02:57 PM CT </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
